--- a/normalized_data_Jan10(Exon_Malueka_Category_C-0_A-1)_6.xlsx
+++ b/normalized_data_Jan10(Exon_Malueka_Category_C-0_A-1)_6.xlsx
@@ -20,15 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Distance_from_Donor_position_of_1st_base_relative_to_donor</t>
+    <t xml:space="preserve">_Free_E_oligo_dimer_RNAcofold</t>
   </si>
   <si>
-    <t xml:space="preserve">Distance_from_acceptor__position_of_last_base_relative_to_acceptor</t>
+    <t xml:space="preserve">_Free_E_oligo_monomer_RNAcofold</t>
   </si>
   <si>
-    <t xml:space="preserve">Exon_Length</t>
+    <t xml:space="preserve">_Free_E_target_monomer_RNAcofold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_dG_100bp_flanks_oligo__target_RNAcofold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_dG_150bp_flanks_oligo__target_RNAcofold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_dG_50bp_flanks_oligo__target__RNAcofold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_dG_TargetAsExon_oligo__target_RNAcofold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dG_100BaseFlanks__RNAstructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dG_200BaseFlanks__RNAstructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dG_50BaseFlanksAroundTarget__RNA_structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dG_ExonStartTo10BaseDownFromOligo_RNAstructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dG__TargetAsExon_RNAstructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_exon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_interacting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_oligo</t>
   </si>
   <si>
     <t xml:space="preserve">skip_percentage</t>
@@ -147,19 +183,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P:P"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.8163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,928 +222,3340 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0.75</v>
+        <v>0.53517877739331</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.0481283422459893</v>
+        <v>0.913083257090576</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>0.711173184357542</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>0.493956223456387</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.382617062219371</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.0544401544401543</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.115866839602248</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.403508771929825</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.340764331210191</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.131672597864769</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.14878892733564</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.0436590436590437</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.449209932279909</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0.910878112712975</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>0.721590909090909</v>
+        <v>0.678200692041522</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0748663101604278</v>
+        <v>0.953339432753888</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>0.606145251396648</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>0.551127082652728</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.448364336112893</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.160617760617761</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.178988326848249</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.389473684210526</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.414012738853503</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.131672597864769</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.252595155709343</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.116424116424116</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.469074492099323</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.910878112712975</v>
+      </c>
+      <c r="P3" s="0" t="n">
         <v>0.979381443298969</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>0.693181818181818</v>
+        <v>0.682814302191465</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.101604278074866</v>
+        <v>0.951509606587374</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>0.525698324022346</v>
       </c>
       <c r="D4" s="0" t="n">
+        <v>0.542633126429272</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.544259140474663</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.332046332046332</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.207306528318202</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.595541401273885</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.341637010676157</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.294117647058823</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.147609147609148</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.506772009029345</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.910878112712975</v>
+      </c>
+      <c r="P4" s="0" t="n">
         <v>0.537113402061856</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>0.522727272727273</v>
+        <v>0.690119184928873</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.262032085561497</v>
+        <v>0.774931381518756</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>0.356424581005586</v>
       </c>
       <c r="D5" s="0" t="n">
+        <v>0.309702711532179</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.425272610647851</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.431660231660232</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.33895373973195</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.231578947368421</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.337579617834395</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.455516014234876</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.560553633217993</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.274428274428274</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.808126410835214</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.681520314547837</v>
+      </c>
+      <c r="P5" s="0" t="n">
         <v>0.360824742268041</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>0.494318181818182</v>
+        <v>0.561707035755479</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.288770053475936</v>
+        <v>0.722781335773102</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>0.402234636871508</v>
       </c>
       <c r="D6" s="0" t="n">
+        <v>0.401176086246325</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.278383579217447</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.412355212355212</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.312581063553826</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.336842105263158</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.302547770700637</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.380782918149466</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.550173010380623</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.239085239085239</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.65530474040632</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.681520314547837</v>
+      </c>
+      <c r="P6" s="0" t="n">
         <v>0.829896907216495</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>0.465909090909091</v>
+        <v>0.50480584390619</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.315508021390374</v>
+        <v>0.714547118023788</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>0.542458100558659</v>
       </c>
       <c r="D7" s="0" t="n">
+        <v>0.344005227049984</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.27132777421424</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.327413127413127</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.301556420233463</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.280701754385965</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.235668789808917</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.352313167259786</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.453287197231834</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.272349272349272</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.687133182844244</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.668414154652687</v>
+      </c>
+      <c r="P7" s="0" t="n">
         <v>0.628865979381443</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>0.4375</v>
+        <v>0.40638216070742</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.342245989304813</v>
+        <v>0.666056724611162</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>0.525139664804469</v>
       </c>
       <c r="D8" s="0" t="n">
+        <v>0.421430904933029</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.359204618345093</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.256756756756757</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.276264591439689</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.375438596491228</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.334394904458599</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.295373665480427</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.349480968858132</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.216216216216216</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.367945823927765</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.677588466579292</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <v>0.0515463917525773</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>0.409090909090909</v>
+        <v>0.422529796232218</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.368983957219251</v>
+        <v>0.701738334858189</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>0.521787709497207</v>
       </c>
       <c r="D9" s="0" t="n">
+        <v>0.513557660895132</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.358883899935856</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.264092664092664</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.287289234760052</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.468152866242038</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.373665480427046</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.480968858131488</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.25987525987526</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.428893905191874</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.677588466579292</v>
+      </c>
+      <c r="P9" s="0" t="n">
         <v>0.652577319587629</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>0.380681818181818</v>
+        <v>0.560938100730488</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.39572192513369</v>
+        <v>0.735590118938701</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>0.555307262569832</v>
       </c>
       <c r="D10" s="0" t="n">
+        <v>0.631492976151584</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.426876202694035</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.281853281853282</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.319282317336792</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.649122807017544</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.550955414012739</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.505338078291815</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.622837370242215</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.305613305613306</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.50451467268623</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.791612057667104</v>
+      </c>
+      <c r="P10" s="0" t="n">
         <v>0.335051546391753</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>0.352272727272727</v>
+        <v>0.510957324106113</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.422459893048128</v>
+        <v>0.67612076852699</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>0.597765363128491</v>
       </c>
       <c r="D11" s="0" t="n">
+        <v>0.578242404442993</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.537524053880693</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.464092664092664</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.356031128404669</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.501754385964912</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.678343949044586</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.466192170818505</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.633217993079585</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.301455301455301</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.455079006772009</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.712975098296199</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>0.268041237113402</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>0.323863636363636</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.449197860962567</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
+        <v>0.664245810055866</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.832081019274747</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.734445157152021</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.664864864864865</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.498486813661911</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.83859649122807</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.748407643312102</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.743772241992883</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.927335640138408</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.436590436590437</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.417832957110609</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>0.0474226804123711</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>0.198863636363636</v>
+        <v>0.657823913879277</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.566844919786096</v>
+        <v>0.924977127172919</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>0.483798882681564</v>
       </c>
       <c r="D13" s="0" t="n">
+        <v>0.419797451813133</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.507376523412444</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.346718146718147</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.235624729788154</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.424561403508772</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.45859872611465</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.533807829181495</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.380622837370242</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.151767151767152</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.421444695259593</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.984272608125819</v>
+      </c>
+      <c r="P13" s="0" t="n">
         <v>0.432989690721649</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>0.170454545454545</v>
+        <v>0.685121107266436</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.593582887700535</v>
+        <v>0.928636779505947</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>0.549720670391061</v>
       </c>
       <c r="D14" s="0" t="n">
+        <v>0.42437112054884</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.549711353431687</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.291505791505791</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.264807609165586</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.421052631578947</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.490445859872611</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.444839857651246</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.491349480968858</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.216216216216216</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.451467268623025</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.972477064220183</v>
+      </c>
+      <c r="P14" s="0" t="n">
         <v>0.22680412371134</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>0.142045454545455</v>
+        <v>0.526720492118416</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.620320855614973</v>
+        <v>0.77676120768527</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>0.472067039106145</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>0.536752695197648</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.492302758178319</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.438223938223938</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.270211846087332</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.52280701754386</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.646496815286624</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.501779359430605</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.56401384083045</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.197505197505197</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.727687626774848</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.827313769751693</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.817824377457405</v>
+      </c>
+      <c r="P15" s="0" t="n">
         <v>0.360824742268041</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>0.960227272727273</v>
+        <v>0.55440215301807</v>
       </c>
       <c r="B16" s="0" t="n">
+        <v>0.763952424519671</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.168715083798883</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.311009474028095</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.32360487491982</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.0810810810810809</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>0.329411764705882</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="H16" s="0" t="n">
+        <v>0.192982456140351</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.114649681528662</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.0604982206405695</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.251918735891648</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.685452162516383</v>
+      </c>
+      <c r="P16" s="0" t="n">
         <v>0.664948453608247</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>0.9375</v>
+        <v>0.4559784698193</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.0213903743315508</v>
+        <v>0.542543458371455</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.329411764705882</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>0.371120548840248</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.463438101347017</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.255212355212355</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.121054907047125</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.182456140350877</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.200636942675159</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.202846975088968</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.110726643598616</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.0644490644490645</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.188487584650113</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.625163826998689</v>
+      </c>
+      <c r="P17" s="0" t="n">
         <v>0.942268041237114</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>0.744318181818182</v>
+        <v>0.508650519031142</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.203208556149733</v>
+        <v>0.773101555352241</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.329411764705882</v>
+        <v>0.135195530726257</v>
       </c>
       <c r="D18" s="0" t="n">
+        <v>0.497549820320157</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.563822963438101</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.446718146718147</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.293558149589278</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.375438596491228</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.36624203821656</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.476868327402135</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.515570934256056</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.293139293139293</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.340406320541761</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.862385321100918</v>
+      </c>
+      <c r="P18" s="0" t="n">
         <v>0.0649484536082474</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>0.5625</v>
+        <v>0.386005382545175</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.374331550802139</v>
+        <v>0.457456541628545</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.329411764705882</v>
+        <v>0.243016759776536</v>
       </c>
       <c r="D19" s="0" t="n">
+        <v>0.511597517151258</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.415330339961514</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.393436293436293</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.211629917855599</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.378947368421052</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.429936305732484</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.427046263345196</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.394463667820069</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.20997920997921</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.0740406320541758</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.429882044560944</v>
+      </c>
+      <c r="P19" s="0" t="n">
         <v>0.0164948453608247</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>0.431818181818182</v>
+        <v>0.655517108804306</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.497326203208556</v>
+        <v>0.768526989935956</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.329411764705882</v>
+        <v>0.389385474860335</v>
       </c>
       <c r="D20" s="0" t="n">
+        <v>0.247304802352172</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.336754329698525</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.086100386100386</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.196714223951578</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.256140350877193</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.25796178343949</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.128113879003559</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.422145328719723</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.17047817047817</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.176749435665914</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.743119266055046</v>
+      </c>
+      <c r="P20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>0.227272727272727</v>
+        <v>0.215301806997309</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.689839572192513</v>
+        <v>0.275388838060384</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.329411764705882</v>
+        <v>0.46927374301676</v>
       </c>
       <c r="D21" s="0" t="n">
+        <v>0.346292061417837</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.301154586273252</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.106563706563706</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.149589277993947</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.382456140350877</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.277070063694267</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.291814946619217</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.283737024221453</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.0935550935550936</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.0182844243792322</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.389252948885976</v>
+      </c>
+      <c r="P21" s="0" t="n">
         <v>0.115463917525773</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>0.181818181818182</v>
+        <v>0.0092272202998846</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.732620320855615</v>
+        <v>0.373284537968893</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.329411764705882</v>
+        <v>0.439664804469274</v>
       </c>
       <c r="D22" s="0" t="n">
+        <v>0.232930414897092</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.325849903784477</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.136619109381755</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.252631578947368</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.242038216560509</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.120996441281139</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.301038062283737</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.103950103950104</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.0878103837471783</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.419397116644823</v>
+      </c>
+      <c r="P22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.793156478277585</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.844919786096257</v>
+        <v>0.915827996340348</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.329411764705882</v>
+        <v>0.149162011173184</v>
       </c>
       <c r="D23" s="0" t="n">
+        <v>0.134923227703365</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.162604233483002</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.189189189189189</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.56463467358409</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.0912280701754387</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.153024911032029</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.055363321799308</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0.56964656964657</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
         <v>0.0164948453608247</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>0.829545454545455</v>
+        <v>0.779315647827759</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>0.875571820677036</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>0.536871508379888</v>
       </c>
       <c r="D24" s="0" t="n">
+        <v>0.979418490689317</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.885824246311738</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.983011583011583</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.376134889753567</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.863157894736842</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.89171974522293</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.577854671280277</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.340956340956341</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.930248306997743</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.91743119266055</v>
+      </c>
+      <c r="P24" s="0" t="n">
         <v>0.0938144329896907</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>0.75</v>
+        <v>0.698193002691273</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.0748663101604278</v>
+        <v>0.780420860018298</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>0.40949720670391</v>
       </c>
       <c r="D25" s="0" t="n">
+        <v>0.925841228356746</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.944515715202053</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.462602680501513</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.954385964912281</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.990445859872612</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.97508896797153</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.809688581314879</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.463617463617464</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.738600451467269</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.754914809960682</v>
+      </c>
+      <c r="P25" s="0" t="n">
         <v>0.0216494845360825</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.251336898395722</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
+        <v>0.851396648044693</v>
       </c>
       <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.9554201411161</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.572200772200772</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.447903156074362</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.640127388535032</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.580071174377224</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0.695501730103806</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>0.432432432432432</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.727313769751693</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="0" t="n">
         <v>0.0556701030927835</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>0.488636363636364</v>
+        <v>0.892733564013841</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.320855614973262</v>
+        <v>0.985361390667886</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
+        <v>0.992737430167598</v>
       </c>
       <c r="D27" s="0" t="n">
+        <v>0.663835347925515</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.714560615779346</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.323938223938224</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.309122351923908</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.652631578947368</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.611464968152866</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.412811387900356</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.591695501730104</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>0.305613305613306</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.609255079006772</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>0.346590909090909</v>
+        <v>0.607458669742407</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.454545454545454</v>
+        <v>0.706312900274474</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0</v>
+        <v>0.907262569832402</v>
       </c>
       <c r="D28" s="0" t="n">
+        <v>0.28062724599804</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.421103271327774</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.37992277992278</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.346519671422395</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.273684210526316</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.299363057324841</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.341637010676157</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.56401384083045</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>0.284823284823285</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.54259501965924</v>
+      </c>
+      <c r="P28" s="0" t="n">
         <v>0.0855670103092784</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>0.318181818181818</v>
+        <v>0.5840061514802</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.454545454545454</v>
+        <v>0.674290942360476</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>0.677653631284916</v>
       </c>
       <c r="D29" s="0" t="n">
+        <v>0.0659915060437766</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.238293778062861</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.208108108108108</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.183744055339386</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.0350877192982456</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.117834394904459</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.202846975088968</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.27681660899654</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>0.122661122661123</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.744469525959368</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.54259501965924</v>
+      </c>
+      <c r="P29" s="0" t="n">
         <v>0.779381443298969</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>0.318181818181818</v>
+        <v>0.608612072279892</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.481283422459893</v>
+        <v>0.693504117108875</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>0.878212290502793</v>
       </c>
       <c r="D30" s="0" t="n">
+        <v>0.411303495589677</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.551314945477871</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.482239382239382</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.342412451361868</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.468152866242038</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.512455516014235</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0.591695501730104</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>0.311850311850312</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.92234762979684</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.622542595019659</v>
+      </c>
+      <c r="P30" s="0" t="n">
         <v>0.160824742268041</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>0.289772727272727</v>
+        <v>0.490965013456363</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.481283422459893</v>
+        <v>0.664226898444648</v>
       </c>
       <c r="C31" s="0" t="n">
+        <v>0.825139664804469</v>
+      </c>
+      <c r="D31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
+        <v>0.242142398973701</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.0200772200772199</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.0665801988759187</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.073248407643312</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.0676156583629893</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.141868512110727</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0.0311850311850312</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.568171557562077</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.501965923984273</v>
+      </c>
+      <c r="P31" s="0" t="n">
         <v>0.906185567010309</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>0.289772727272727</v>
+        <v>0.725490196078431</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.508021390374332</v>
+        <v>0.811527904849039</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
+        <v>0.894972067039106</v>
       </c>
       <c r="D32" s="0" t="n">
+        <v>0.335837961450506</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.554842847979474</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.318532818532819</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.226977950713359</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.249122807017544</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.299363057324841</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.238434163701068</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0.328719723183391</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0.143451143451143</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.717607223476298</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.800786369593709</v>
+      </c>
+      <c r="P32" s="0" t="n">
         <v>0.512371134020619</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>0.261363636363636</v>
+        <v>0.690503652441369</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.508021390374332</v>
+        <v>0.77035681610247</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0</v>
+        <v>0.846368715083799</v>
       </c>
       <c r="D33" s="0" t="n">
+        <v>0.101274093433519</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.254971135343169</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.0864864864864863</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.0771725032425422</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.0175438596491228</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.0859872611464967</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.0676156583629893</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0.1280276816609</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>0.00415800415800422</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.607900677200903</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.781127129750983</v>
+      </c>
+      <c r="P33" s="0" t="n">
         <v>0.769072164948453</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>0.244318181818182</v>
+        <v>0.705882352941176</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.524064171122995</v>
+        <v>0.859103385178408</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>0.741899441340782</v>
       </c>
       <c r="D34" s="0" t="n">
+        <v>0.225743221169552</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.349903784477229</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.0872586872586872</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.0955469087764808</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.119298245614035</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.124203821656051</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.142348754448399</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0.190311418685121</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0.051975051975052</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.649887133182844</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.791612057667104</v>
+      </c>
+      <c r="P34" s="0" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>0.244318181818182</v>
+        <v>0.713187235678585</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.550802139037433</v>
+        <v>0.897529734675206</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0</v>
+        <v>0.745810055865922</v>
       </c>
       <c r="D35" s="0" t="n">
+        <v>0.468474354786018</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.532392559332906</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.333590733590734</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.25832252485949</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.375438596491228</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.372611464968153</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.387900355871886</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.453287197231834</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>0.20997920997921</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.752144469525959</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.867627785058978</v>
+      </c>
+      <c r="P35" s="0" t="n">
         <v>0.218556701030928</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>0.215909090909091</v>
+        <v>0.704728950403691</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.550802139037433</v>
+        <v>0.89295516925892</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
+        <v>0.664245810055866</v>
       </c>
       <c r="D36" s="0" t="n">
+        <v>0.347598823913754</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.456061577934573</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.0706563706563706</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.121703415477735</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.249122807017544</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.143312101910828</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.0960854092526691</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0.262975778546713</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>0.0166320166320166</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.684424379232505</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.867627785058978</v>
+      </c>
+      <c r="P36" s="0" t="n">
         <v>0.790721649484536</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>0.130681818181818</v>
+        <v>0.628604382929643</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.657754010695187</v>
+        <v>0.747483989021043</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>0.885474860335195</v>
       </c>
       <c r="D37" s="0" t="n">
+        <v>0.81999346618752</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.785760102629891</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.647490347490347</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.361003026372676</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.705263157894737</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.573248407643312</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.708185053380783</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0.754325259515571</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0.38045738045738</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.833634311512415</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.73656618610747</v>
+      </c>
+      <c r="P37" s="0" t="n">
         <v>0.0556701030927835</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>0.0284090909090909</v>
+        <v>0.814302191464821</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.727272727272727</v>
+        <v>0.920402561756633</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>0.943575418994413</v>
       </c>
       <c r="D38" s="0" t="n">
+        <v>0.573668735707285</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.439384220654266</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.416602316602317</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.720492866407263</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.505263157894737</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.343949044585987</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.387900355871886</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0.57439446366782</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>0.711018711018711</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.713995485327314</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.885976408912189</v>
+      </c>
+      <c r="P38" s="0" t="n">
         <v>0.0154639175257732</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>0</v>
+        <v>0.717800845828527</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.754010695187166</v>
+        <v>0.823421774931382</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>0.898324022346369</v>
       </c>
       <c r="D39" s="0" t="n">
+        <v>0.573668735707285</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.490378447722899</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.493436293436293</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.921098140942499</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.498245614035088</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.426751592356688</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.427046263345196</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0.626297577854671</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>0.941787941787942</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0.709480812641083</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0.834862385321101</v>
+      </c>
+      <c r="P39" s="0" t="n">
         <v>0.190721649484536</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>0.0170454545454545</v>
+        <v>0.840445982314494</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.764705882352941</v>
+        <v>0.945105215004575</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
+        <v>0.944135903299575</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.873957665169981</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.894208494208494</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.964912280701754</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.831210191082803</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.921708185053381</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0.927335640138408</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0.878555304740406</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.968545216251638</v>
+      </c>
+      <c r="P40" s="0" t="n">
         <v>0.00618556701030928</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>0.159090909090909</v>
+        <v>0.313341022683583</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.60427807486631</v>
+        <v>0.38060384263495</v>
       </c>
       <c r="C41" s="0" t="n">
+        <v>0.253631284916201</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.112054884024828</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="F41" s="0" t="n">
+        <v>0.0791505791505791</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.110462602680502</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.178947368421053</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.0445859872611465</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.174377224199288</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0.200692041522491</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0.135135135135135</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.717155756207675</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.589777195281782</v>
+      </c>
+      <c r="P41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>0.1875</v>
+        <v>0.481737793156478</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.60427807486631</v>
+        <v>0.58188472095151</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0</v>
+        <v>0.280446927374301</v>
       </c>
       <c r="D42" s="0" t="n">
+        <v>0.47827507350539</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.369788325849904</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.567567567567568</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.357760484219628</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.582456140350877</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.372611464968153</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.644128113879004</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0.57439446366782</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0.386694386694387</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.832279909706546</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.748361730013106</v>
+      </c>
+      <c r="P42" s="0" t="n">
         <v>0.00206185567010309</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>0.960227272727273</v>
+        <v>0.512879661668589</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.331550802139037</v>
+        <v>0.809698078682525</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1</v>
+        <v>0.00502793296089365</v>
       </c>
       <c r="D43" s="0" t="n">
+        <v>0.690950669715779</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.689223861449647</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.735135135135135</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.472762645914397</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.770700636942675</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0.754448398576512</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.868512110726643</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0.424116424116424</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0.317951318458418</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.714446952595937</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.752293577981651</v>
+      </c>
+      <c r="P43" s="0" t="n">
         <v>0.15360824742268</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>0.909090909090909</v>
+        <v>0.476739715494041</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.3475935828877</v>
+        <v>0.659652333028362</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
+        <v>0.135195530726257</v>
       </c>
       <c r="D44" s="0" t="n">
+        <v>0.450506370467167</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.533033996151379</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.27992277992278</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.324902723735409</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.375438596491228</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.525477707006369</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0.338078291814947</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0.460207612456748</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>0.255717255717256</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>0.317951318458418</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.588939051918736</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.617300131061599</v>
+      </c>
+      <c r="P44" s="0" t="n">
         <v>0.271134020618557</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>1</v>
+        <v>0.288735101883891</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.155080213903743</v>
+        <v>0.585544373284538</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.486033519553072</v>
       </c>
       <c r="D45" s="0" t="n">
+        <v>0.294021561581183</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.347979474021809</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.0374517374517374</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.124297449200173</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.0828025477707005</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0.1280276816609</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>0.00207900207900211</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0.60451467268623</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0.593709043250328</v>
+      </c>
+      <c r="P45" s="0" t="n">
         <v>0.54020618556701</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>0.982954545454545</v>
+        <v>0.282968089196463</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.171122994652406</v>
+        <v>0.578225068618481</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.319553072625698</v>
       </c>
       <c r="D46" s="0" t="n">
+        <v>0.356419470761189</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.316549069916613</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.189189189189189</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0.121919584954604</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.175438596491228</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.117834394904459</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.209964412811388</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0.121107266435986</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>0.0623700623700624</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.388939051918736</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.581913499344692</v>
+      </c>
+      <c r="P46" s="0" t="n">
         <v>0.898969072164948</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>1</v>
+        <v>0.289504036908881</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.181818181818182</v>
+        <v>0.586459286367795</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.486033519553072</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>0.53969291081346</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.618986529826812</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.401158301158301</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.312364894076956</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.389473684210526</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.394904458598726</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.398576512455516</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0.456747404844291</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>0.1995841995842</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0.654627539503386</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.664482306684141</v>
+      </c>
+      <c r="P47" s="0" t="n">
         <v>0.130927835051546</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>0.965909090909091</v>
+        <v>0.284121491733949</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.18716577540107</v>
+        <v>0.577310155535224</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.399441340782123</v>
       </c>
       <c r="D48" s="0" t="n">
+        <v>0.583796145050637</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.342847979474022</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.233976833976834</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.119541720709036</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.480701754385965</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.0796178343949045</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.288256227758007</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0.110726643598616</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0.0935550935550936</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0.403386004514672</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.330275229357798</v>
+      </c>
+      <c r="P48" s="0" t="n">
         <v>0.825773195876289</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>0.982954545454545</v>
+        <v>0.289504036908881</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.197860962566845</v>
+        <v>0.586459286367795</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.548603351955307</v>
       </c>
       <c r="D49" s="0" t="n">
+        <v>0.631819666775564</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.59493264913406</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.408880308880309</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0.309987029831388</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.515789473684211</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.375796178343949</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0.416370106761566</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0.43598615916955</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>0.251559251559252</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>0.64040632054176</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>0.581913499344692</v>
+      </c>
+      <c r="P49" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>0.948863636363636</v>
+        <v>0.299884659746251</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.203208556149733</v>
+        <v>0.585544373284538</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.646927374301676</v>
       </c>
       <c r="D50" s="0" t="n">
+        <v>0.594903626265926</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.398973701090442</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.11042471042471</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.151750972762646</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.473684210526316</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.146496815286624</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.160142348754448</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0.193771626297578</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>0.118503118503119</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>0.436794582392776</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0.288335517693316</v>
+      </c>
+      <c r="P50" s="0" t="n">
         <v>0.397938144329897</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>0.965909090909091</v>
+        <v>0.512879661668589</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.213903743315508</v>
+        <v>0.775846294602013</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.746927374301676</v>
       </c>
       <c r="D51" s="0" t="n">
+        <v>0.806272459980399</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.562860808210391</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.312741312741313</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.27367055771725</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.729824561403509</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.372611464968153</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.405693950177936</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.366782006920415</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>0.247401247401247</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0.623476297968397</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>0.596330275229358</v>
+      </c>
+      <c r="P51" s="0" t="n">
         <v>0.0206185567010309</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>0.931818181818182</v>
+        <v>0.48481353325644</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.219251336898396</v>
+        <v>0.63220494053065</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.6268156424581</v>
       </c>
       <c r="D52" s="0" t="n">
+        <v>0.519111401502777</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.427838357921745</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.154440154440154</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.180069174232598</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0.414035087719298</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0.261146496815286</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0.249110320284697</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0.228373702422145</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>0.139293139293139</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>0.411286681715576</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>0.593709043250328</v>
+      </c>
+      <c r="P52" s="0" t="n">
         <v>0.0969072164948454</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>0.948863636363636</v>
+        <v>0.622837370242214</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.229946524064171</v>
+        <v>0.790484903934126</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.69608938547486</v>
       </c>
       <c r="D53" s="0" t="n">
+        <v>0.898399215942503</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.693393200769724</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.535907335907336</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.333549502810203</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.817543859649123</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.490445859872611</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0.590747330960854</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0.508650519031142</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>0.307692307692308</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0.541309255079007</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0.727391874180865</v>
+      </c>
+      <c r="P53" s="0" t="n">
         <v>0.108247422680412</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>0.914772727272727</v>
+        <v>0.646289888504421</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.235294117647059</v>
+        <v>0.819762122598353</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.636871508379888</v>
       </c>
       <c r="D54" s="0" t="n">
+        <v>0.497549820320157</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.4108402822322</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.21003861003861</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.159100734976221</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.385964912280702</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0.226114649681528</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0.245551601423487</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0.262975778546713</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>0.141372141372141</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>0.46726862302483</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0.727391874180865</v>
+      </c>
+      <c r="P54" s="0" t="n">
         <v>0.370103092783505</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>0.931818181818182</v>
+        <v>0.651672433679354</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.245989304812834</v>
+        <v>0.827996340347667</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.728491620111732</v>
       </c>
       <c r="D55" s="0" t="n">
+        <v>0.754001960143744</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.651379089159718</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.435521235521236</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.311067877215737</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.63859649122807</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0.45859872611465</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0.487544483985765</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0.467128027681661</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>0.282744282744283</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0.549435665914221</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0.727391874180865</v>
+      </c>
+      <c r="P55" s="0" t="n">
         <v>0.0927835051546392</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>0.914772727272727</v>
+        <v>0.721261053440984</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.262032085561497</v>
+        <v>0.975297346752059</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.730167597765363</v>
       </c>
       <c r="D56" s="0" t="n">
+        <v>0.665142110421431</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.628608082103913</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.430888030888031</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.29031560743623</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0.496815286624204</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0.483985765124555</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0.505190311418685</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0.286902286902287</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0.408803611738149</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>0.980340760157274</v>
+      </c>
+      <c r="P56" s="0" t="n">
         <v>0.00309278350515464</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>0.806818181818182</v>
+        <v>0.526336024605921</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.363636363636364</v>
+        <v>0.631290027447392</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.4268156424581</v>
       </c>
       <c r="D57" s="0" t="n">
+        <v>0.896439072198628</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.765637065637066</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.549502810203199</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0.926315789473684</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0.907473309608541</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0.546777546777547</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0.678329571106095</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0.802096985583224</v>
+      </c>
+      <c r="P57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>0.744318181818182</v>
+        <v>0.555555555555555</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.422459893048128</v>
+        <v>0.784080512351327</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.362011173184357</v>
       </c>
       <c r="D58" s="0" t="n">
+        <v>0.571055210715453</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.611610006414368</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0.363597060095115</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0.515789473684211</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0.662420382165605</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0.416370106761566</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0.550173010380623</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0.376299376299376</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0.573814898419864</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0.828309305373526</v>
+      </c>
+      <c r="P58" s="0" t="n">
         <v>0.00618556701030928</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>0.6875</v>
+        <v>0.775470972702807</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.475935828877005</v>
+        <v>0.90576395242452</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.0748603351955305</v>
       </c>
       <c r="D59" s="0" t="n">
+        <v>0.42437112054884</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.613213598460552</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.46023166023166</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.334198011240813</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0.396491228070175</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0.554140127388535</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0.362989323843416</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0.439446366782007</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0.305613305613306</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0.484650112866817</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0.990825688073394</v>
+      </c>
+      <c r="P59" s="0" t="n">
         <v>0.0309278350515464</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>0.579545454545455</v>
+        <v>0.572472126105344</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.577540106951872</v>
+        <v>0.864592863677951</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.306703910614525</v>
       </c>
       <c r="D60" s="0" t="n">
+        <v>0.455080039202875</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0.542014111610006</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0.403474903474903</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0.334198011240813</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0.56140350877193</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0.592356687898089</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0.516014234875445</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0.501730103806228</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>0.349272349272349</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0.436117381489842</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0.942332896461337</v>
+      </c>
+      <c r="P60" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>0.539772727272727</v>
+        <v>0.496347558631296</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.614973262032086</v>
+        <v>0.598353156450137</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.275418994413408</v>
       </c>
       <c r="D61" s="0" t="n">
+        <v>0.472394642273767</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0.438101347017319</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0.509266409266409</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0.367704280155642</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0.45859872611465</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0.661921708185053</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0.598615916955017</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>0.363825363825364</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>0.657562076749436</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>0.681520314547837</v>
+      </c>
+      <c r="P61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>0.471590909090909</v>
+        <v>0.391003460207612</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.679144385026738</v>
+        <v>0.569990850869167</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.273184357541899</v>
       </c>
       <c r="D62" s="0" t="n">
+        <v>0.445279320483502</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0.363694676074407</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0.426640926640927</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0.301340250756593</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.435087719298246</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0.442675159235669</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0.451957295373666</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>0.560553633217993</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>0.316008316008316</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>0.483069977426636</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>0.560943643512451</v>
+      </c>
+      <c r="P62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>0.352272727272727</v>
+        <v>0.509419454056132</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.79144385026738</v>
+        <v>0.68252516010979</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.475418994413408</v>
       </c>
       <c r="D63" s="0" t="n">
+        <v>0.383861483175433</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0.361770365618987</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0.159073359073359</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0.310419368785127</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0.378947368421052</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>0.464968152866242</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>0.174377224199288</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>0.519031141868512</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>0.301455301455301</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>0.465237020316027</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>0.753604193971167</v>
+      </c>
+      <c r="P63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>0.301136363636364</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.839572192513369</v>
+        <v>0.578225068618481</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.971508379888268</v>
       </c>
       <c r="D64" s="0" t="n">
+        <v>0.634433191767396</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.352790250160359</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0.311583011583012</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0.978599221789883</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0.459649122807018</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0.197452229299363</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0.220640569395018</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0.356401384083045</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>0.935550935550936</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>0.494808126410835</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>0.798165137614679</v>
+      </c>
+      <c r="P64" s="0" t="n">
         <v>0.00103092783505155</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>0.232954545454545</v>
+        <v>0.57516339869281</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.903743315508021</v>
+        <v>0.854528819762123</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.729608938547486</v>
       </c>
       <c r="D65" s="0" t="n">
+        <v>0.492322770336491</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0.528864656831302</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0.4996138996139</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0.345654993514916</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0.389473684210526</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>0.401273885350318</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>0.498220640569395</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0.619377162629758</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>0.297297297297297</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>0.681715575620767</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>0.82175622542595</v>
+      </c>
+      <c r="P65" s="0" t="n">
         <v>0.0381443298969072</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>0.164772727272727</v>
+        <v>0.544405997693195</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.967914438502674</v>
+        <v>0.566331198536139</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.793854748603352</v>
       </c>
       <c r="D66" s="0" t="n">
+        <v>0.659261679189807</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.605195638229634</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.674517374517374</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0.40358841331604</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0.673684210526316</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0.60828025477707</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0.644128113879004</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>0.390852390852391</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>0.549887133182844</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>0.549148099606815</v>
+      </c>
+      <c r="P66" s="0" t="n">
         <v>0.12680412371134</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>0.130681818181818</v>
+        <v>0.876585928489043</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1</v>
+        <v>0.981701738334858</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.752941176470588</v>
+        <v>0.921787709497207</v>
       </c>
       <c r="D67" s="0" t="n">
+        <v>0.54328650767723</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.509621552277101</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0.459459459459459</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0.316472114137484</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>0.426751592356688</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>0.459074733096085</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0.692041522491349</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>0.316008316008316</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>0.100405679513185</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>0.351918735891648</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="0" t="n">
         <v>0.0814432989690722</v>
       </c>
     </row>
